--- a/氣象性能評估工具V2/2016-0T2.xlsx
+++ b/氣象性能評估工具V2/2016-0T2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="27">
   <si>
     <t>MBE</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>鞍部</t>
+  </si>
+  <si>
+    <t>overal</t>
   </si>
   <si>
     <t>淡水站</t>
@@ -448,109 +451,109 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.5073065476190476</v>
+        <v>1.030277777777777</v>
       </c>
       <c r="C2">
-        <v>1.073913690476191</v>
+        <v>1.280833333333333</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.382901785714286</v>
+        <v>0.1113888888888888</v>
       </c>
       <c r="C3">
-        <v>1.117842261904761</v>
+        <v>0.9174999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.01211309523809524</v>
+        <v>0.5751388888888884</v>
       </c>
       <c r="C4">
-        <v>1.045803571428572</v>
+        <v>1.192361111111111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.09523809523809521</v>
+        <v>0.2462500000000002</v>
       </c>
       <c r="C5">
-        <v>1.080446428571429</v>
+        <v>1.197916666666667</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.5273363095238098</v>
+        <v>0.6424999999999996</v>
       </c>
       <c r="C6">
-        <v>1.421770833333333</v>
+        <v>1.285277777777778</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.8844345238095241</v>
+        <v>-0.6141666666666671</v>
       </c>
       <c r="C7">
-        <v>1.213422619047618</v>
+        <v>1.004722222222223</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>1.089211309523809</v>
+        <v>1.232083333333333</v>
       </c>
       <c r="C8">
-        <v>1.568050595238094</v>
+        <v>1.564861111111111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.1188095238095238</v>
+        <v>0.2983333333333336</v>
       </c>
       <c r="C9">
-        <v>0.9289880952380956</v>
+        <v>0.8769444444444449</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.6986160714285716</v>
+        <v>0.09263888888888877</v>
       </c>
       <c r="C10">
-        <v>1.237604166666667</v>
+        <v>1.195694444444444</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>0.2805208333333329</v>
+        <v>0.3946666666666668</v>
       </c>
       <c r="C11">
-        <v>1.036413690476191</v>
+        <v>1.143583333333333</v>
       </c>
     </row>
   </sheetData>
@@ -576,68 +579,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>0.3933630952380955</v>
+        <v>1.032361111111111</v>
       </c>
       <c r="C2">
-        <v>0.8747619047619042</v>
+        <v>1.159861111111111</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>0.8146726190476195</v>
+        <v>1.946666666666667</v>
       </c>
       <c r="C3">
-        <v>1.404761904761905</v>
+        <v>2.20138888888889</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>1.623526785714286</v>
+        <v>1.826805555555556</v>
       </c>
       <c r="C4">
-        <v>1.80171130952381</v>
+        <v>1.985138888888889</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>1.97470238095238</v>
+        <v>2.123333333333332</v>
       </c>
       <c r="C5">
-        <v>2.068303571428571</v>
+        <v>2.173055555555555</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>-0.0983779761904761</v>
+        <v>0.2294444444444445</v>
       </c>
       <c r="C6">
-        <v>1.516116071428571</v>
+        <v>1.711388888888889</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>3.301502976190478</v>
+        <v>1.831365740740741</v>
       </c>
       <c r="C7">
-        <v>3.400520833333334</v>
+        <v>2.177337962962963</v>
       </c>
     </row>
   </sheetData>
@@ -663,79 +666,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>-0.0983779761904761</v>
+        <v>0.2294444444444445</v>
       </c>
       <c r="C2">
-        <v>1.516116071428571</v>
+        <v>1.711388888888889</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>3.301502976190478</v>
+        <v>3.829583333333335</v>
       </c>
       <c r="C3">
-        <v>3.400520833333334</v>
+        <v>3.833194444444446</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7252678571428572</v>
+        <v>1.566805555555555</v>
       </c>
       <c r="C4">
-        <v>1.22139880952381</v>
+        <v>1.857083333333333</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>0.3816220238095229</v>
+        <v>0.8531944444444443</v>
       </c>
       <c r="C5">
-        <v>0.9994196428571422</v>
+        <v>1.137361111111111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>1.067604166666668</v>
+        <v>1.083055555555555</v>
       </c>
       <c r="C6">
-        <v>1.229806547619048</v>
+        <v>1.174722222222222</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>-1.550565476190477</v>
+        <v>-0.6980555555555557</v>
       </c>
       <c r="C7">
-        <v>1.8325</v>
+        <v>1.2325</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0.02331845238095233</v>
+        <v>0.9787103174603176</v>
       </c>
       <c r="C8">
-        <v>1.204270833333331</v>
+        <v>1.724424603174603</v>
       </c>
     </row>
   </sheetData>
@@ -761,79 +764,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>0.8146726190476195</v>
+        <v>1.946666666666667</v>
       </c>
       <c r="C2">
-        <v>1.404761904761905</v>
+        <v>2.20138888888889</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>1.623526785714286</v>
+        <v>1.826805555555556</v>
       </c>
       <c r="C3">
-        <v>1.80171130952381</v>
+        <v>1.985138888888889</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>1.97470238095238</v>
+        <v>2.123333333333332</v>
       </c>
       <c r="C4">
-        <v>2.068303571428571</v>
+        <v>2.173055555555555</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>-0.0983779761904761</v>
+        <v>0.2294444444444445</v>
       </c>
       <c r="C5">
-        <v>1.516116071428571</v>
+        <v>1.711388888888889</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>3.301502976190478</v>
+        <v>3.829583333333335</v>
       </c>
       <c r="C6">
-        <v>3.400520833333334</v>
+        <v>3.833194444444446</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>0.7252678571428572</v>
+        <v>1.566805555555555</v>
       </c>
       <c r="C7">
-        <v>1.22139880952381</v>
+        <v>1.857083333333333</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0.3816220238095229</v>
+        <v>1.767976190476188</v>
       </c>
       <c r="C8">
-        <v>0.9994196428571422</v>
+        <v>2.128373015873017</v>
       </c>
     </row>
   </sheetData>
@@ -859,90 +862,90 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>0.8146726190476195</v>
+        <v>1.946666666666667</v>
       </c>
       <c r="C2">
-        <v>1.404761904761905</v>
+        <v>2.20138888888889</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>0.9634672619047615</v>
+        <v>0.76125</v>
       </c>
       <c r="C3">
-        <v>1.229300595238094</v>
+        <v>1.095972222222222</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>1.623526785714286</v>
+        <v>1.826805555555556</v>
       </c>
       <c r="C4">
-        <v>1.80171130952381</v>
+        <v>1.985138888888889</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>1.97470238095238</v>
+        <v>2.123333333333332</v>
       </c>
       <c r="C5">
-        <v>2.068303571428571</v>
+        <v>2.173055555555555</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>3.301502976190478</v>
+        <v>3.829583333333335</v>
       </c>
       <c r="C6">
-        <v>3.400520833333334</v>
+        <v>3.833194444444446</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>0.1200446428571424</v>
+        <v>-0.2245833333333334</v>
       </c>
       <c r="C7">
-        <v>0.9867113095238101</v>
+        <v>0.9129166666666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>0.5252827380952387</v>
+        <v>0.8548611111111112</v>
       </c>
       <c r="C8">
-        <v>1.298288690476191</v>
+        <v>1.580694444444444</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>-1.550565476190477</v>
+        <v>1.302482638888889</v>
       </c>
       <c r="C9">
-        <v>1.8325</v>
+        <v>1.87685763888889</v>
       </c>
     </row>
   </sheetData>
@@ -968,90 +971,90 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>0.3933630952380955</v>
+        <v>1.032361111111111</v>
       </c>
       <c r="C2">
-        <v>0.8747619047619042</v>
+        <v>1.159861111111111</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>0.8146726190476195</v>
+        <v>1.946666666666667</v>
       </c>
       <c r="C3">
-        <v>1.404761904761905</v>
+        <v>2.20138888888889</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>1.623526785714286</v>
+        <v>1.826805555555556</v>
       </c>
       <c r="C4">
-        <v>1.80171130952381</v>
+        <v>1.985138888888889</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>1.97470238095238</v>
+        <v>2.123333333333332</v>
       </c>
       <c r="C5">
-        <v>2.068303571428571</v>
+        <v>2.173055555555555</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>-0.0983779761904761</v>
+        <v>0.2294444444444445</v>
       </c>
       <c r="C6">
-        <v>1.516116071428571</v>
+        <v>1.711388888888889</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>3.301502976190478</v>
+        <v>3.829583333333335</v>
       </c>
       <c r="C7">
-        <v>3.400520833333334</v>
+        <v>3.833194444444446</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>0.7252678571428572</v>
+        <v>1.566805555555555</v>
       </c>
       <c r="C8">
-        <v>1.22139880952381</v>
+        <v>1.857083333333333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>0.3816220238095229</v>
+        <v>1.676024305555554</v>
       </c>
       <c r="C9">
-        <v>0.9994196428571422</v>
+        <v>2.007309027777778</v>
       </c>
     </row>
   </sheetData>
@@ -1080,263 +1083,263 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.5073065476190476</v>
+        <v>1.030277777777777</v>
       </c>
       <c r="C2">
-        <v>1.073913690476191</v>
+        <v>1.280833333333333</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.382901785714286</v>
+        <v>0.1113888888888888</v>
       </c>
       <c r="C3">
-        <v>1.117842261904761</v>
+        <v>0.9174999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.01211309523809524</v>
+        <v>0.5751388888888884</v>
       </c>
       <c r="C4">
-        <v>1.045803571428572</v>
+        <v>1.192361111111111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.09523809523809521</v>
+        <v>0.2462500000000002</v>
       </c>
       <c r="C5">
-        <v>1.080446428571429</v>
+        <v>1.197916666666667</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.5273363095238098</v>
+        <v>0.6424999999999996</v>
       </c>
       <c r="C6">
-        <v>1.421770833333333</v>
+        <v>1.285277777777778</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.8844345238095241</v>
+        <v>-0.6141666666666671</v>
       </c>
       <c r="C7">
-        <v>1.213422619047618</v>
+        <v>1.004722222222223</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>1.089211309523809</v>
+        <v>1.232083333333333</v>
       </c>
       <c r="C8">
-        <v>1.568050595238094</v>
+        <v>1.564861111111111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.1188095238095238</v>
+        <v>0.2983333333333336</v>
       </c>
       <c r="C9">
-        <v>0.9289880952380956</v>
+        <v>0.8769444444444449</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.6986160714285716</v>
+        <v>0.09263888888888877</v>
       </c>
       <c r="C10">
-        <v>1.237604166666667</v>
+        <v>1.195694444444444</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.2805208333333329</v>
+        <v>0.3322222222222221</v>
       </c>
       <c r="C11">
-        <v>1.036413690476191</v>
+        <v>0.9197222222222226</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.3933630952380955</v>
+        <v>1.032361111111111</v>
       </c>
       <c r="C12">
-        <v>0.8747619047619042</v>
+        <v>1.159861111111111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.8146726190476195</v>
+        <v>1.946666666666667</v>
       </c>
       <c r="C13">
-        <v>1.404761904761905</v>
+        <v>2.20138888888889</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.9634672619047615</v>
+        <v>0.76125</v>
       </c>
       <c r="C14">
-        <v>1.229300595238094</v>
+        <v>1.095972222222222</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>1.623526785714286</v>
+        <v>1.826805555555556</v>
       </c>
       <c r="C15">
-        <v>1.80171130952381</v>
+        <v>1.985138888888889</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>1.97470238095238</v>
+        <v>2.123333333333332</v>
       </c>
       <c r="C16">
-        <v>2.068303571428571</v>
+        <v>2.173055555555555</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>-0.0983779761904761</v>
+        <v>0.2294444444444445</v>
       </c>
       <c r="C17">
-        <v>1.516116071428571</v>
+        <v>1.711388888888889</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>3.301502976190478</v>
+        <v>3.829583333333335</v>
       </c>
       <c r="C18">
-        <v>3.400520833333334</v>
+        <v>3.833194444444446</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.1200446428571424</v>
+        <v>-0.2245833333333334</v>
       </c>
       <c r="C19">
-        <v>0.9867113095238101</v>
+        <v>0.9129166666666667</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>0.7252678571428572</v>
+        <v>1.566805555555555</v>
       </c>
       <c r="C20">
-        <v>1.22139880952381</v>
+        <v>1.857083333333333</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>0.3816220238095229</v>
+        <v>0.8531944444444443</v>
       </c>
       <c r="C21">
-        <v>0.9994196428571422</v>
+        <v>1.137361111111111</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.5252827380952387</v>
+        <v>0.8548611111111112</v>
       </c>
       <c r="C22">
-        <v>1.298288690476191</v>
+        <v>1.580694444444444</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>1.067604166666668</v>
+        <v>1.083055555555555</v>
       </c>
       <c r="C23">
-        <v>1.229806547619048</v>
+        <v>1.174722222222222</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>-1.550565476190477</v>
+        <v>-0.6980555555555557</v>
       </c>
       <c r="C24">
-        <v>1.8325</v>
+        <v>1.2325</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>0.02331845238095233</v>
+        <v>0.7965972222222225</v>
       </c>
       <c r="C25">
-        <v>1.204270833333331</v>
+        <v>1.44232638888889</v>
       </c>
     </row>
   </sheetData>
